--- a/data/5GClient_testcase.xlsx
+++ b/data/5GClient_testcase.xlsx
@@ -2,9 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\5G-gateway-interfaceTest\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -14,67 +19,53 @@
     <sheet name="系统设置-基础设置" sheetId="5" r:id="rId5"/>
     <sheet name="系统设置-配置管理" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="13">
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="14">
   <si>
     <t>用例描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>接口名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>请求url</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>请求类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>请求头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>请求参数类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>请求参数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行sql</t>
   </si>
   <si>
     <t>预期结果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>是否执行</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>测试结果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>执行sql</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -82,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,13 +94,6 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -453,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -463,45 +447,46 @@
     <col min="2" max="2" width="30.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="15" style="4" customWidth="1"/>
     <col min="4" max="4" width="15.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9" style="4"/>
+    <col min="5" max="5" width="9" style="4" customWidth="1"/>
     <col min="6" max="6" width="21.875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9" style="4"/>
+    <col min="7" max="7" width="9" style="4" customWidth="1"/>
     <col min="8" max="8" width="35.75" style="4" customWidth="1"/>
     <col min="9" max="9" width="29.375" style="4" customWidth="1"/>
     <col min="10" max="10" width="27.375" style="4" customWidth="1"/>
     <col min="11" max="11" width="5" style="4" customWidth="1"/>
     <col min="12" max="12" width="16.5" style="4" customWidth="1"/>
     <col min="13" max="13" width="12.875" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="4"/>
+    <col min="14" max="14" width="9" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -519,6 +504,9 @@
     <row r="2" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
+      </c>
+      <c r="B2">
+        <v>11111111</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -618,45 +606,46 @@
     <col min="2" max="2" width="30.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="15" style="4" customWidth="1"/>
     <col min="4" max="4" width="15.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9" style="4"/>
+    <col min="5" max="5" width="9" style="4" customWidth="1"/>
     <col min="6" max="6" width="21.875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9" style="4"/>
+    <col min="7" max="7" width="9" style="4" customWidth="1"/>
     <col min="8" max="8" width="35.75" style="4" customWidth="1"/>
     <col min="9" max="9" width="29.375" style="4" customWidth="1"/>
     <col min="10" max="10" width="27.375" style="4" customWidth="1"/>
     <col min="11" max="11" width="5" style="4" customWidth="1"/>
     <col min="12" max="12" width="16.5" style="4" customWidth="1"/>
     <col min="13" max="13" width="12.875" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="4"/>
+    <col min="14" max="14" width="9" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -772,45 +761,46 @@
     <col min="2" max="2" width="30.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="15" style="4" customWidth="1"/>
     <col min="4" max="4" width="15.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9" style="4"/>
+    <col min="5" max="5" width="9" style="4" customWidth="1"/>
     <col min="6" max="6" width="21.875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9" style="4"/>
+    <col min="7" max="7" width="9" style="4" customWidth="1"/>
     <col min="8" max="8" width="35.75" style="4" customWidth="1"/>
     <col min="9" max="9" width="29.375" style="4" customWidth="1"/>
     <col min="10" max="10" width="27.375" style="4" customWidth="1"/>
     <col min="11" max="11" width="5" style="4" customWidth="1"/>
     <col min="12" max="12" width="16.5" style="4" customWidth="1"/>
     <col min="13" max="13" width="12.875" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="4"/>
+    <col min="14" max="14" width="9" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -926,45 +916,46 @@
     <col min="2" max="2" width="30.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="15" style="4" customWidth="1"/>
     <col min="4" max="4" width="15.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9" style="4"/>
+    <col min="5" max="5" width="9" style="4" customWidth="1"/>
     <col min="6" max="6" width="21.875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9" style="4"/>
+    <col min="7" max="7" width="9" style="4" customWidth="1"/>
     <col min="8" max="8" width="35.75" style="4" customWidth="1"/>
     <col min="9" max="9" width="29.375" style="4" customWidth="1"/>
     <col min="10" max="10" width="27.375" style="4" customWidth="1"/>
     <col min="11" max="11" width="5" style="4" customWidth="1"/>
     <col min="12" max="12" width="16.5" style="4" customWidth="1"/>
     <col min="13" max="13" width="12.875" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="4"/>
+    <col min="14" max="14" width="9" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -1080,45 +1071,46 @@
     <col min="2" max="2" width="30.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="15" style="4" customWidth="1"/>
     <col min="4" max="4" width="15.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9" style="4"/>
+    <col min="5" max="5" width="9" style="4" customWidth="1"/>
     <col min="6" max="6" width="21.875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9" style="4"/>
+    <col min="7" max="7" width="9" style="4" customWidth="1"/>
     <col min="8" max="8" width="35.75" style="4" customWidth="1"/>
     <col min="9" max="9" width="29.375" style="4" customWidth="1"/>
     <col min="10" max="10" width="27.375" style="4" customWidth="1"/>
     <col min="11" max="11" width="5" style="4" customWidth="1"/>
     <col min="12" max="12" width="16.5" style="4" customWidth="1"/>
     <col min="13" max="13" width="12.875" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="4"/>
+    <col min="14" max="14" width="9" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -1224,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1234,45 +1226,46 @@
     <col min="2" max="2" width="30.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="15" style="4" customWidth="1"/>
     <col min="4" max="4" width="15.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9" style="4"/>
+    <col min="5" max="5" width="9" style="4" customWidth="1"/>
     <col min="6" max="6" width="21.875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9" style="4"/>
+    <col min="7" max="7" width="9" style="4" customWidth="1"/>
     <col min="8" max="8" width="35.75" style="4" customWidth="1"/>
     <col min="9" max="9" width="29.375" style="4" customWidth="1"/>
     <col min="10" max="10" width="27.375" style="4" customWidth="1"/>
     <col min="11" max="11" width="5" style="4" customWidth="1"/>
     <col min="12" max="12" width="16.5" style="4" customWidth="1"/>
     <col min="13" max="13" width="12.875" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="4"/>
+    <col min="14" max="14" width="9" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>

--- a/data/5GClient_testcase.xlsx
+++ b/data/5GClient_testcase.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\5G-gateway-interfaceTest\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -19,12 +14,15 @@
     <sheet name="系统设置-基础设置" sheetId="5" r:id="rId5"/>
     <sheet name="系统设置-配置管理" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="19">
+  <si>
+    <t>id</t>
+  </si>
   <si>
     <t>用例描述</t>
   </si>
@@ -62,18 +60,35 @@
     <t>备注</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>id</t>
+    <t>用例名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,14 +176,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -215,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -250,7 +257,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -427,54 +434,57 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="35.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9" style="4" customWidth="1"/>
-    <col min="6" max="6" width="21.875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9" style="4" customWidth="1"/>
-    <col min="8" max="8" width="35.75" style="4" customWidth="1"/>
-    <col min="9" max="9" width="29.375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="27.375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="5" style="4" customWidth="1"/>
-    <col min="12" max="12" width="16.5" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="9" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="5.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9" style="4" customWidth="1"/>
+    <col min="9" max="9" width="35.77734375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="29.33203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="27.33203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="5.21875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="12" style="4" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="29.33203125" style="4" customWidth="1"/>
+    <col min="17" max="18" width="9" style="4" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="35.1" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -498,78 +508,85 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="35.1" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>11111111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2"/>
+    </row>
+    <row r="3" spans="1:16" ht="35.1" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="35.1" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="35.1" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="35.1" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="35.1" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="35.1" customHeight="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="35.1" customHeight="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="35.1" customHeight="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="35.1" customHeight="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="35.1" customHeight="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="35.1" customHeight="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="35.1" customHeight="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="35.1" customHeight="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -577,13 +594,13 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
       <formula1>"url,json,data"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
       <formula1>"get,post,put,delete"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -593,139 +610,139 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="35.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="15" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="4" customWidth="1"/>
     <col min="5" max="5" width="9" style="4" customWidth="1"/>
-    <col min="6" max="6" width="21.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" style="4" customWidth="1"/>
     <col min="7" max="7" width="9" style="4" customWidth="1"/>
-    <col min="8" max="8" width="35.75" style="4" customWidth="1"/>
-    <col min="9" max="9" width="29.375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="27.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="35.77734375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="29.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" style="4" customWidth="1"/>
     <col min="11" max="11" width="5" style="4" customWidth="1"/>
-    <col min="12" max="12" width="16.5" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="9" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="4"/>
+    <col min="12" max="12" width="16.44140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" style="4" customWidth="1"/>
+    <col min="14" max="15" width="9" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="35.1" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" ht="35.1" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="35.1" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="35.1" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="35.1" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="35.1" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="35.1" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="35.1" customHeight="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="35.1" customHeight="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="35.1" customHeight="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="35.1" customHeight="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="35.1" customHeight="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="35.1" customHeight="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="35.1" customHeight="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="35.1" customHeight="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -748,139 +765,139 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="35.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="15" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="4" customWidth="1"/>
     <col min="5" max="5" width="9" style="4" customWidth="1"/>
-    <col min="6" max="6" width="21.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" style="4" customWidth="1"/>
     <col min="7" max="7" width="9" style="4" customWidth="1"/>
-    <col min="8" max="8" width="35.75" style="4" customWidth="1"/>
-    <col min="9" max="9" width="29.375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="27.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="35.77734375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="29.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" style="4" customWidth="1"/>
     <col min="11" max="11" width="5" style="4" customWidth="1"/>
-    <col min="12" max="12" width="16.5" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="9" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="4"/>
+    <col min="12" max="12" width="16.44140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" style="4" customWidth="1"/>
+    <col min="14" max="15" width="9" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="35.1" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" ht="35.1" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="35.1" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="35.1" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="35.1" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="35.1" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="35.1" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="35.1" customHeight="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="35.1" customHeight="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="35.1" customHeight="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="35.1" customHeight="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="35.1" customHeight="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="35.1" customHeight="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="35.1" customHeight="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="35.1" customHeight="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -903,139 +920,139 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="35.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="15" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="4" customWidth="1"/>
     <col min="5" max="5" width="9" style="4" customWidth="1"/>
-    <col min="6" max="6" width="21.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" style="4" customWidth="1"/>
     <col min="7" max="7" width="9" style="4" customWidth="1"/>
-    <col min="8" max="8" width="35.75" style="4" customWidth="1"/>
-    <col min="9" max="9" width="29.375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="27.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="35.77734375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="29.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" style="4" customWidth="1"/>
     <col min="11" max="11" width="5" style="4" customWidth="1"/>
-    <col min="12" max="12" width="16.5" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="9" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="4"/>
+    <col min="12" max="12" width="16.44140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" style="4" customWidth="1"/>
+    <col min="14" max="15" width="9" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="35.1" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" ht="35.1" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="35.1" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="35.1" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="35.1" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="35.1" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="35.1" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="35.1" customHeight="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="35.1" customHeight="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="35.1" customHeight="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="35.1" customHeight="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="35.1" customHeight="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="35.1" customHeight="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="35.1" customHeight="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="35.1" customHeight="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1058,139 +1075,139 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="35.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="15" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="4" customWidth="1"/>
     <col min="5" max="5" width="9" style="4" customWidth="1"/>
-    <col min="6" max="6" width="21.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" style="4" customWidth="1"/>
     <col min="7" max="7" width="9" style="4" customWidth="1"/>
-    <col min="8" max="8" width="35.75" style="4" customWidth="1"/>
-    <col min="9" max="9" width="29.375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="27.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="35.77734375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="29.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" style="4" customWidth="1"/>
     <col min="11" max="11" width="5" style="4" customWidth="1"/>
-    <col min="12" max="12" width="16.5" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="9" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="4"/>
+    <col min="12" max="12" width="16.44140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" style="4" customWidth="1"/>
+    <col min="14" max="15" width="9" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="35.1" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" ht="35.1" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="35.1" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="35.1" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="35.1" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="35.1" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="35.1" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="35.1" customHeight="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="35.1" customHeight="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="35.1" customHeight="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="35.1" customHeight="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="35.1" customHeight="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="35.1" customHeight="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="35.1" customHeight="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="35.1" customHeight="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1213,139 +1230,139 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="35.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="15" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="4" customWidth="1"/>
     <col min="5" max="5" width="9" style="4" customWidth="1"/>
-    <col min="6" max="6" width="21.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" style="4" customWidth="1"/>
     <col min="7" max="7" width="9" style="4" customWidth="1"/>
-    <col min="8" max="8" width="35.75" style="4" customWidth="1"/>
-    <col min="9" max="9" width="29.375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="27.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="35.77734375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="29.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" style="4" customWidth="1"/>
     <col min="11" max="11" width="5" style="4" customWidth="1"/>
-    <col min="12" max="12" width="16.5" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="9" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="4"/>
+    <col min="12" max="12" width="16.44140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" style="4" customWidth="1"/>
+    <col min="14" max="15" width="9" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="35.1" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" ht="35.1" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="35.1" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="35.1" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="35.1" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="35.1" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="35.1" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="35.1" customHeight="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="35.1" customHeight="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="35.1" customHeight="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="35.1" customHeight="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="35.1" customHeight="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="35.1" customHeight="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="35.1" customHeight="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="35.1" customHeight="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
